--- a/macdsig.xlsx
+++ b/macdsig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trading\Systems\Strategies\itdalpha\macdsig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8D9979-5AFC-4F9C-B4B0-0161774A0AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1707C2-03FA-4B5B-8712-DC3B8C1591AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AC2D453-32C2-420C-8BAB-1FC18C0202BE}"/>
   </bookViews>
@@ -467,11 +467,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B4459D-6DE0-4A36-8CEC-DE3BF948815E}">
-  <dimension ref="A1:G165"/>
+  <dimension ref="A1:G168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B167" sqref="B167"/>
+      <selection pane="bottomLeft" activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1810,6 +1810,30 @@
         <v>51</v>
       </c>
     </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="3">
+        <v>44566</v>
+      </c>
+      <c r="B166" s="9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="3">
+        <v>44567</v>
+      </c>
+      <c r="B167" s="9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="3">
+        <v>44568</v>
+      </c>
+      <c r="B168" s="9">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G265">
     <sortCondition ref="A1:A265"/>
